--- a/Analysis workbook.xlsx
+++ b/Analysis workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="18020" tabRatio="500" firstSheet="12" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Visitors vs Total Consumption" sheetId="2" state="hidden" r:id="rId1"/>
@@ -29,14 +29,16 @@
     <sheet name="Avg cons vs Temp Soft Water" sheetId="23" state="hidden" r:id="rId20"/>
     <sheet name="Avg cons vs Temp Liq Wine" sheetId="24" state="hidden" r:id="rId21"/>
     <sheet name="Sheet6" sheetId="19" state="hidden" r:id="rId22"/>
-    <sheet name="Consumption per month" sheetId="27" r:id="rId23"/>
-    <sheet name="Sheet7" sheetId="25" r:id="rId24"/>
+    <sheet name="Consumption per month stacked" sheetId="27" state="hidden" r:id="rId23"/>
+    <sheet name="Consumption per month" sheetId="28" state="hidden" r:id="rId24"/>
+    <sheet name="Consumption per month subcats" sheetId="29" state="hidden" r:id="rId25"/>
+    <sheet name="Sheet7" sheetId="25" state="hidden" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$BN$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet2!$A$1:$BM$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">Sheet6!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">Sheet7!$A$1:$BL$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">Sheet7!$A$1:$BL$70</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -342,7 +344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="197">
   <si>
     <t>Naam evenement</t>
   </si>
@@ -928,6 +930,12 @@
   <si>
     <t>December</t>
   </si>
+  <si>
+    <t>Lager</t>
+  </si>
+  <si>
+    <t>Beach beer</t>
+  </si>
 </sst>
 </file>
 
@@ -6877,7 +6885,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Consumption per visitor (2014)</a:t>
+              <a:t>Total consumption per visitor (2014)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7394,6 +7402,552 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Main category consumption per visitor (2014)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$J$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$I$73:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$J$73:$J$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.458864377104377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.100275655011655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.828653111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.998646959183673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.962523567099567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.270387642135642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.563856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.971919333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$T$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soft drinks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$I$73:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$T$73:$T$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.598693737373737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.515028866666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.348316230769231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.428202824175824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.263797142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.193594285714286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1935625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.315975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$AN$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Liquors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$I$73:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$AN$73:$AN$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.194978181818182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0552166730769231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.159344230769231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.129382107142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0317316666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.105708095238095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0677555555555555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.350138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$BA$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$I$73:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$BA$73:$BA$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.753282828282828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.731621256410256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.638295076923077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45344010989011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.141644155844156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.344605714285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1715625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.642325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$BE$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$I$73:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$BE$73:$BE$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0554913461538461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.073635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0421089285714286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.165971428571429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00921428571428571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.013875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2102263912"/>
+        <c:axId val="-2102380376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2102263912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102380376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2102380376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average consumption</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per visitor (L)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102263912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -7962,6 +8516,466 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Subcategory consumption per visitor (2014)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$K$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cider</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$I$73:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$K$73:$K$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.103607272727273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.124683066666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.159515185185185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125165654761905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.070736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0402987012987013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.143697777777778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$N$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$I$73:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$N$73:$N$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.373699663299663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.826380902564103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.576426666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.853899680272109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.968666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.204791682539683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.542336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.800342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$O$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$I$73:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$O$73:$O$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.191488615384615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.028215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.104982857142857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0437485714285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$R$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beach beer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$I$73:$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$R$73:$R$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.541740692307692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1174008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.238788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0299885714285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.091608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2054779384"/>
+        <c:axId val="-2043172184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2054779384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2043172184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2043172184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average consumption per visitor (L)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2054779384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -11905,7 +12919,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -11917,6 +12942,17 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -12270,7 +13306,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9215438" cy="5619750"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9209497" cy="5623145"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -29310,9 +30400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -53890,8 +54978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL80"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -59420,7 +60508,7 @@
         <v>8</v>
       </c>
       <c r="N72" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="O72" t="s">
         <v>10</v>
@@ -59432,7 +60520,7 @@
         <v>12</v>
       </c>
       <c r="R72" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="S72" t="s">
         <v>14</v>
